--- a/Federal Poverty Calculations.xlsx
+++ b/Federal Poverty Calculations.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="1410" yWindow="0" windowWidth="17520" windowHeight="13200"/>
   </bookViews>
   <sheets>
-    <sheet name="Fed Poverty Calculations" sheetId="1" r:id="rId1"/>
+    <sheet name="Fed Poverty Calculations 2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Race</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Column A</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
   <dimension ref="A1:W359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,12 +1053,12 @@
     <col min="1" max="1" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.5703125" hidden="1" customWidth="1"/>
@@ -1118,8 +1121,8 @@
         <v>9</v>
       </c>
       <c r="S1" s="8"/>
-      <c r="T1" s="7">
-        <v>2019</v>
+      <c r="T1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
